--- a/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7863" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7866" uniqueCount="845">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3726,10 +3726,6 @@
   </si>
   <si>
     <t>"10"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>;Create an action, add three actions, Run-command,Email and write file.</t>
@@ -4726,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4818,7 +4814,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4859,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4987,7 +4983,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -5047,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5078,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5109,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5453,7 +5449,7 @@
         <v>795</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>796</v>
@@ -5672,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
@@ -5778,7 +5774,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5799,7 +5795,7 @@
         <v>396</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
@@ -5818,7 +5814,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5902,7 +5898,7 @@
         <v>799</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J42" s="5" t="b">
         <v>1</v>
@@ -7545,16 +7541,20 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F106" s="5">
-        <v>2</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>812</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -7568,7 +7568,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>306</v>
@@ -7579,7 +7579,7 @@
       <c r="G107" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="5"/>
+      <c r="H107" s="11"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -7693,7 +7693,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="5"/>
@@ -7791,7 +7791,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>18</v>
@@ -7908,7 +7908,7 @@
         <v>799</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J120" s="11" t="b">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="5"/>
@@ -8031,7 +8031,7 @@
         <v>792</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>794</v>
@@ -8047,7 +8047,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>18</v>
@@ -8189,7 +8189,7 @@
         <v>800</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J131" s="5" t="b">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>800</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J132" s="5" t="b">
         <v>1</v>
@@ -8251,7 +8251,7 @@
         <v>800</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J133" s="5" t="b">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -8440,7 +8440,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>18</v>
@@ -8556,7 +8556,7 @@
         <v>799</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J145" s="11" t="b">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>792</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J156" s="5" t="s">
         <v>794</v>
@@ -8835,7 +8835,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>18</v>
@@ -9213,7 +9213,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D164:D165 D159:D162 D40:D68 D75 D85:D111 D123:D136 D113:D121 D138:D152 D154:D157 D32 D6:D19 D3:D4 D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D164:D165 D159:D162 D40:D68 D75 D21 D123:D136 D113:D121 D138:D152 D154:D157 D32 D6:D19 D3:D4 D85:D111">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F173">

--- a/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7866" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7862" uniqueCount="841">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3617,19 +3617,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
@@ -3741,10 +3732,6 @@
   </si>
   <si>
     <t>"admin"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"Administrator"</t>
@@ -4722,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="F143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4814,7 +4801,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4855,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4886,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4911,7 +4898,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4942,7 +4929,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4971,7 +4958,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>241</v>
@@ -4983,7 +4970,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -5004,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>241</v>
@@ -5031,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>254</v>
@@ -5043,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5062,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>254</v>
@@ -5074,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5093,7 +5080,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>254</v>
@@ -5105,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5124,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>254</v>
@@ -5153,7 +5140,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>241</v>
@@ -5182,7 +5169,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>278</v>
@@ -5194,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5213,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>278</v>
@@ -5225,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5244,7 +5231,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>278</v>
@@ -5273,7 +5260,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>278</v>
@@ -5304,7 +5291,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>278</v>
@@ -5333,7 +5320,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
@@ -5356,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>241</v>
@@ -5368,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5383,7 +5370,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
@@ -5439,21 +5426,13 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>796</v>
-      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="7"/>
       <c r="O24" s="2"/>
     </row>
@@ -5474,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="5"/>
@@ -5501,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
@@ -5528,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5555,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5668,7 +5647,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
@@ -5774,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5795,7 +5774,7 @@
         <v>396</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
@@ -5814,7 +5793,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5833,7 +5812,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>19</v>
@@ -5858,7 +5837,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>19</v>
@@ -5883,7 +5862,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>306</v>
@@ -5895,10 +5874,10 @@
         <v>7</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J42" s="5" t="b">
         <v>1</v>
@@ -5937,7 +5916,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>306</v>
@@ -5962,7 +5941,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>310</v>
@@ -5974,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5989,7 +5968,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>310</v>
@@ -6001,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6016,7 +5995,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>310</v>
@@ -6091,7 +6070,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>361</v>
@@ -6103,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
@@ -6118,7 +6097,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>361</v>
@@ -6130,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="5"/>
@@ -6157,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
@@ -6197,7 +6176,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>361</v>
@@ -6209,7 +6188,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6224,7 +6203,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>361</v>
@@ -6236,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -6301,7 +6280,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>361</v>
@@ -6313,7 +6292,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
@@ -6340,7 +6319,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6355,7 +6334,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>361</v>
@@ -6367,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6382,7 +6361,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>361</v>
@@ -6394,7 +6373,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6409,7 +6388,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>361</v>
@@ -6421,7 +6400,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6436,7 +6415,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>361</v>
@@ -6448,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -6463,7 +6442,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>361</v>
@@ -6488,7 +6467,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>361</v>
@@ -6513,7 +6492,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>361</v>
@@ -6600,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="5"/>
@@ -6652,7 +6631,7 @@
         <v>59</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="5"/>
@@ -6777,7 +6756,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="5"/>
@@ -6804,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6831,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="5"/>
@@ -6858,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
@@ -6885,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
@@ -7058,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7085,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7191,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -7243,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -7270,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -7297,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="5"/>
@@ -7399,7 +7378,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="5"/>
@@ -7426,7 +7405,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I101" s="11"/>
       <c r="J101" s="5"/>
@@ -7553,7 +7532,7 @@
         <v>56</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -7605,7 +7584,7 @@
         <v>59</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -7693,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="5"/>
@@ -7772,10 +7751,10 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>794</v>
@@ -7791,7 +7770,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>18</v>
@@ -7878,7 +7857,7 @@
         <v>56</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I119" s="11"/>
       <c r="J119" s="5"/>
@@ -7905,10 +7884,10 @@
         <v>7</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J120" s="11" t="b">
         <v>0</v>
@@ -7949,7 +7928,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="5"/>
@@ -8031,7 +8010,7 @@
         <v>792</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>794</v>
@@ -8047,7 +8026,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>18</v>
@@ -8072,7 +8051,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>19</v>
@@ -8097,7 +8076,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>19</v>
@@ -8122,7 +8101,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>241</v>
@@ -8134,7 +8113,7 @@
         <v>56</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="5"/>
@@ -8149,7 +8128,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>241</v>
@@ -8174,7 +8153,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>278</v>
@@ -8186,10 +8165,10 @@
         <v>7</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J131" s="5" t="b">
         <v>1</v>
@@ -8205,7 +8184,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>278</v>
@@ -8217,10 +8196,10 @@
         <v>7</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J132" s="5" t="b">
         <v>1</v>
@@ -8236,7 +8215,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>278</v>
@@ -8248,10 +8227,10 @@
         <v>7</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="J133" s="5" t="b">
         <v>0</v>
@@ -8267,7 +8246,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>278</v>
@@ -8292,7 +8271,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>278</v>
@@ -8317,7 +8296,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>241</v>
@@ -8342,7 +8321,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -8361,7 +8340,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>19</v>
@@ -8421,10 +8400,10 @@
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>794</v>
@@ -8440,7 +8419,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>18</v>
@@ -8526,7 +8505,7 @@
         <v>56</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="5"/>
@@ -8553,10 +8532,10 @@
         <v>7</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J145" s="11" t="b">
         <v>1</v>
@@ -8681,7 +8660,7 @@
         <v>60</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="5"/>
@@ -8741,7 +8720,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
@@ -8820,7 +8799,7 @@
         <v>792</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J156" s="5" t="s">
         <v>794</v>
@@ -8835,7 +8814,7 @@
         <v>156</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>18</v>
@@ -8919,7 +8898,7 @@
         <v>60</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="5"/>
@@ -9003,7 +8982,7 @@
         <v>163</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>19</v>
@@ -9027,7 +9006,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>241</v>
@@ -9039,7 +9018,7 @@
         <v>56</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -9053,7 +9032,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>241</v>
@@ -9077,7 +9056,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>241</v>
@@ -9089,7 +9068,7 @@
         <v>56</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -9103,7 +9082,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>241</v>
@@ -9127,7 +9106,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>241</v>

--- a/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7862" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="843">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3762,13 +3762,21 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,6 +3848,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3933,7 +3947,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3976,13 +3990,28 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4707,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J174" sqref="J174"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4892,7 +4921,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41075</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4923,7 +4952,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4951,9 +4980,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>841</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4982,11 +5011,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -5012,8 +5039,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5041,10 +5072,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5073,7 +5102,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5104,7 +5133,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5133,7 +5162,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5162,7 +5191,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5193,7 +5222,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5223,10 +5252,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5254,7 +5283,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5281,11 +5310,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5313,9 +5340,11 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5336,7 +5365,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5366,6 +5395,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -8907,7 +8940,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="7"/>
     </row>
-    <row r="161" spans="3:14">
+    <row r="161" spans="3:15">
       <c r="C161" s="5">
         <v>160</v>
       </c>
@@ -8931,7 +8964,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" spans="3:14">
+    <row r="162" spans="3:15">
       <c r="C162" s="5">
         <v>161</v>
       </c>
@@ -8953,7 +8986,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="7"/>
     </row>
-    <row r="163" spans="3:14">
+    <row r="163" spans="3:15">
       <c r="C163" s="5">
         <v>162</v>
       </c>
@@ -8977,7 +9010,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="7"/>
     </row>
-    <row r="164" spans="3:14">
+    <row r="164" spans="3:15">
       <c r="C164" s="5">
         <v>163</v>
       </c>
@@ -9001,7 +9034,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="7"/>
     </row>
-    <row r="165" spans="3:14">
+    <row r="165" spans="3:15">
       <c r="C165" s="5">
         <v>164</v>
       </c>
@@ -9027,7 +9060,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="7"/>
     </row>
-    <row r="166" spans="3:14">
+    <row r="166" spans="3:15">
       <c r="C166" s="5">
         <v>165</v>
       </c>
@@ -9051,7 +9084,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="7"/>
     </row>
-    <row r="167" spans="3:14">
+    <row r="167" spans="3:15">
       <c r="C167" s="5">
         <v>166</v>
       </c>
@@ -9077,7 +9110,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="7"/>
     </row>
-    <row r="168" spans="3:14">
+    <row r="168" spans="3:15">
       <c r="C168" s="5">
         <v>167</v>
       </c>
@@ -9101,7 +9134,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="7"/>
     </row>
-    <row r="169" spans="3:14">
+    <row r="169" spans="3:15">
       <c r="C169" s="5">
         <v>168</v>
       </c>
@@ -9125,69 +9158,140 @@
       <c r="M169" s="5"/>
       <c r="N169" s="7"/>
     </row>
-    <row r="170" spans="3:14">
-      <c r="C170" s="5"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
+    <row r="170" spans="3:15">
+      <c r="C170" s="5">
+        <v>169</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="7"/>
+      <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="3:14">
-      <c r="C171" s="5"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
+    <row r="171" spans="3:15">
+      <c r="C171" s="5">
+        <v>170</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="7"/>
+      <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="3:14">
-      <c r="C172" s="5"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
+    <row r="172" spans="3:15">
+      <c r="C172" s="5">
+        <v>171</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="7"/>
+      <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="3:14">
-      <c r="C173" s="5"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
+    <row r="173" spans="3:15" ht="15">
+      <c r="C173" s="5">
+        <v>172</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="I173" s="11"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="7"/>
+      <c r="O173" s="2"/>
+    </row>
+    <row r="174" spans="3:15">
+      <c r="C174" s="5">
+        <v>173</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N173">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N174">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9195,13 +9299,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D164:D165 D159:D162 D40:D68 D75 D21 D123:D136 D113:D121 D138:D152 D154:D157 D32 D6:D19 D3:D4 D85:D111">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F174">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G174">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E174">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -9211,9 +9315,10 @@
     <hyperlink ref="H11" r:id="rId3"/>
     <hyperlink ref="H12" r:id="rId4"/>
     <hyperlink ref="H37" r:id="rId5"/>
+    <hyperlink ref="H173" r:id="rId6" display="test@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST594_ActionSet_DeletewithRightsToAllActionTypes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="843">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3997,21 +3997,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4736,7 +4722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -4952,7 +4938,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -7580,17 +7566,15 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F107" s="5">
+        <v>5</v>
+      </c>
+      <c r="G107" s="5"/>
       <c r="H107" s="11"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -7608,17 +7592,15 @@
         <v>789</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>824</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" s="11"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -7638,12 +7620,14 @@
         <v>310</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>824</v>
+      </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -7660,7 +7644,7 @@
         <v>789</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>99</v>
@@ -7668,8 +7652,8 @@
       <c r="G110" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -7682,15 +7666,17 @@
         <v>110</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F111" s="5">
-        <v>2</v>
-      </c>
-      <c r="G111" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="5"/>
@@ -7700,15 +7686,19 @@
       <c r="N111" s="7"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="3:15" ht="15">
+    <row r="112" spans="3:15">
       <c r="C112" s="5">
         <v>111</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="5"/>
+      <c r="D112" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F112" s="5">
+        <v>2</v>
+      </c>
       <c r="G112" s="5"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -7719,24 +7709,18 @@
       <c r="N112" s="7"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="3:15">
+    <row r="113" spans="3:15" ht="15">
       <c r="C113" s="5">
         <v>112</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="D113" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -7755,7 +7739,7 @@
         <v>19</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
@@ -7774,24 +7758,20 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>794</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -7803,20 +7783,24 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
@@ -7828,13 +7812,13 @@
         <v>116</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>19</v>
+        <v>837</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>2</v>
@@ -7859,7 +7843,7 @@
         <v>19</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>2</v>
@@ -7881,17 +7865,15 @@
         <v>789</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>809</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -7911,20 +7893,16 @@
         <v>306</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="J120" s="11" t="b">
-        <v>0</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -7942,30 +7920,42 @@
         <v>306</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="J121" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="7"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="3:15" ht="15">
+    <row r="122" spans="3:15">
       <c r="C122" s="5">
         <v>121</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="D122" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="5"/>
@@ -7975,22 +7965,16 @@
       <c r="N122" s="7"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="3:15">
+    <row r="123" spans="3:15" ht="15">
       <c r="C123" s="5">
         <v>122</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D123" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
       <c r="J123" s="5"/>
@@ -8011,7 +7995,7 @@
         <v>19</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>2</v>
@@ -8030,24 +8014,20 @@
         <v>124</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>0</v>
+        <v>789</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>794</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -8059,20 +8039,24 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8084,18 +8068,18 @@
         <v>126</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="5"/>
+      <c r="H127" s="11"/>
       <c r="I127" s="11"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -8115,7 +8099,7 @@
         <v>19</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>2</v>
@@ -8136,18 +8120,16 @@
       <c r="D129" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E129" s="11" t="s">
-        <v>241</v>
+      <c r="E129" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>802</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" s="5"/>
       <c r="I129" s="11"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -8167,13 +8149,15 @@
         <v>241</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="11"/>
-      <c r="I130" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="I130" s="11"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -8189,23 +8173,17 @@
         <v>800</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="J131" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -8223,7 +8201,7 @@
         <v>278</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>7</v>
@@ -8254,7 +8232,7 @@
         <v>278</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>7</v>
@@ -8263,10 +8241,10 @@
         <v>797</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J133" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
@@ -8288,11 +8266,17 @@
         <v>280</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J134" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -8310,12 +8294,12 @@
         <v>278</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="H135" s="11"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -8332,10 +8316,10 @@
         <v>800</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
@@ -8349,17 +8333,23 @@
       <c r="N136" s="7"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="3:15" ht="15">
+    <row r="137" spans="3:15">
       <c r="C137" s="5">
         <v>136</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="11"/>
+      <c r="D137" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -8368,23 +8358,17 @@
       <c r="N137" s="7"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="3:15">
+    <row r="138" spans="3:15" ht="15">
       <c r="C138" s="5">
         <v>137</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="5"/>
+      <c r="D138" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="11"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -8398,13 +8382,13 @@
         <v>138</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
@@ -8423,24 +8407,20 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>794</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
@@ -8452,20 +8432,24 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
@@ -8477,13 +8461,13 @@
         <v>141</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>19</v>
+        <v>837</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>2</v>
@@ -8495,6 +8479,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="7"/>
+      <c r="O142" s="2"/>
     </row>
     <row r="143" spans="3:15">
       <c r="C143" s="5">
@@ -8507,7 +8492,7 @@
         <v>19</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>2</v>
@@ -8519,7 +8504,6 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="2"/>
     </row>
     <row r="144" spans="3:15">
       <c r="C144" s="5">
@@ -8529,17 +8513,15 @@
         <v>789</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>809</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" s="11"/>
       <c r="I144" s="11"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -8559,20 +8541,16 @@
         <v>306</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="J145" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="I145" s="11"/>
+      <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
@@ -8593,11 +8571,17 @@
         <v>184</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="J146" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
@@ -8615,18 +8599,19 @@
         <v>306</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="7"/>
+      <c r="O147" s="2"/>
     </row>
     <row r="148" spans="3:15">
       <c r="C148" s="5">
@@ -8636,16 +8621,16 @@
         <v>789</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
@@ -8663,7 +8648,7 @@
         <v>19</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>2</v>
@@ -8684,17 +8669,15 @@
         <v>789</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>809</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -8712,14 +8695,16 @@
       <c r="E151" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F151" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H151" s="11"/>
-      <c r="I151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I151" s="11"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
@@ -8731,15 +8716,17 @@
         <v>151</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F152" s="11">
-        <v>1</v>
-      </c>
-      <c r="G152" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H152" s="11"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -8748,15 +8735,19 @@
       <c r="M152" s="5"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="3:15" ht="15">
+    <row r="153" spans="3:15">
       <c r="C153" s="5">
         <v>152</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
+      <c r="D153" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F153" s="11">
+        <v>1</v>
+      </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="5"/>
@@ -8766,24 +8757,18 @@
       <c r="M153" s="5"/>
       <c r="N153" s="7"/>
     </row>
-    <row r="154" spans="3:15">
+    <row r="154" spans="3:15" ht="15">
       <c r="C154" s="5">
         <v>153</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D154" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
+      <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -8801,7 +8786,7 @@
         <v>19</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>2</v>
@@ -8819,24 +8804,20 @@
         <v>155</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>0</v>
+        <v>789</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>794</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
@@ -8847,20 +8828,24 @@
         <v>156</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>794</v>
+      </c>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
@@ -8871,19 +8856,19 @@
         <v>157</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+        <v>837</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -8900,14 +8885,14 @@
       <c r="E159" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
+      <c r="F159" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -8922,17 +8907,15 @@
         <v>789</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>809</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" s="11"/>
       <c r="I160" s="11"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -8950,14 +8933,16 @@
       <c r="E161" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H161" s="11"/>
-      <c r="I161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I161" s="11"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -8969,15 +8954,17 @@
         <v>161</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F162" s="11">
-        <v>1</v>
-      </c>
-      <c r="G162" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H162" s="11"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -8991,18 +8978,16 @@
         <v>162</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H163" s="5"/>
+        <v>756</v>
+      </c>
+      <c r="F163" s="11">
+        <v>1</v>
+      </c>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
@@ -9015,15 +9000,15 @@
         <v>163</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E164" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G164" s="5" t="s">
+      <c r="F164" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H164" s="5"/>
@@ -9041,18 +9026,16 @@
       <c r="D165" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>241</v>
+      <c r="E165" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -9065,18 +9048,20 @@
         <v>165</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>805</v>
+      </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
@@ -9094,15 +9079,13 @@
       <c r="E167" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>802</v>
-      </c>
+      <c r="F167" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -9120,13 +9103,15 @@
       <c r="E168" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>802</v>
+      </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -9145,7 +9130,7 @@
         <v>241</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>2</v>
@@ -9163,25 +9148,24 @@
         <v>169</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
+        <v>795</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="2"/>
     </row>
     <row r="171" spans="3:15">
       <c r="C171" s="5">
@@ -9194,7 +9178,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>2</v>
@@ -9216,10 +9200,10 @@
         <v>789</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>2</v>
@@ -9233,7 +9217,7 @@
       <c r="N172" s="7"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="3:15" ht="15">
+    <row r="173" spans="3:15">
       <c r="C173" s="5">
         <v>172</v>
       </c>
@@ -9244,14 +9228,12 @@
         <v>396</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H173" s="18" t="s">
-        <v>842</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" s="11"/>
       <c r="I173" s="11"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -9260,7 +9242,7 @@
       <c r="N173" s="7"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="3:15">
+    <row r="174" spans="3:15" ht="15">
       <c r="C174" s="5">
         <v>173</v>
       </c>
@@ -9271,12 +9253,14 @@
         <v>396</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>836</v>
+        <v>441</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H174" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>842</v>
+      </c>
       <c r="I174" s="11"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -9285,27 +9269,52 @@
       <c r="N174" s="7"/>
       <c r="O174" s="2"/>
     </row>
+    <row r="175" spans="3:15">
+      <c r="C175" s="5">
+        <v>174</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N174">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N175">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D164:D165 D159:D162 D40:D68 D75 D21 D123:D136 D113:D121 D138:D152 D154:D157 D32 D6:D19 D3:D4 D85:D111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D165:D166 D160:D163 D40:D68 D75 D21 D124:D137 D114:D122 D139:D153 D155:D158 D32 D6:D19 D3:D4 D85:D112">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F175">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G175">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E175">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -9315,7 +9324,7 @@
     <hyperlink ref="H11" r:id="rId3"/>
     <hyperlink ref="H12" r:id="rId4"/>
     <hyperlink ref="H37" r:id="rId5"/>
-    <hyperlink ref="H173" r:id="rId6" display="test@test.com"/>
+    <hyperlink ref="H174" r:id="rId6" display="test@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
